--- a/deep_seq_batch/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_full_speed_coherence.xlsx
+++ b/deep_seq_batch/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_full_speed_coherence.xlsx
@@ -542,64 +542,64 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.64415717124939</v>
+        <v>4.855130672454834</v>
       </c>
       <c r="C2" t="n">
-        <v>4.732282638549805</v>
+        <v>5.526955604553223</v>
       </c>
       <c r="D2" t="n">
-        <v>3.15716028213501</v>
+        <v>3.828574419021606</v>
       </c>
       <c r="E2" t="n">
-        <v>3.589176177978516</v>
+        <v>4.766592979431152</v>
       </c>
       <c r="F2" t="n">
-        <v>3.997435808181763</v>
+        <v>4.123440742492676</v>
       </c>
       <c r="G2" t="n">
-        <v>4.57954216003418</v>
+        <v>3.464800119400024</v>
       </c>
       <c r="H2" t="n">
-        <v>3.983235120773315</v>
+        <v>6.842787742614746</v>
       </c>
       <c r="I2" t="n">
-        <v>3.781923055648804</v>
+        <v>3.861340284347534</v>
       </c>
       <c r="J2" t="n">
-        <v>3.890583038330078</v>
+        <v>5.798437595367432</v>
       </c>
       <c r="K2" t="n">
-        <v>3.746969699859619</v>
+        <v>3.634540796279907</v>
       </c>
       <c r="L2" t="n">
-        <v>4.642427444458008</v>
+        <v>3.758678197860718</v>
       </c>
       <c r="M2" t="n">
-        <v>4.215335845947266</v>
+        <v>4.650991916656494</v>
       </c>
       <c r="N2" t="n">
-        <v>3.228809595108032</v>
+        <v>5.294843673706055</v>
       </c>
       <c r="O2" t="n">
-        <v>6.758226871490479</v>
+        <v>8.674136161804199</v>
       </c>
       <c r="P2" t="n">
-        <v>10.30936527252197</v>
+        <v>13.37157917022705</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.636116504669189</v>
+        <v>4.34760856628418</v>
       </c>
       <c r="R2" t="n">
-        <v>3.21711254119873</v>
+        <v>4.38038444519043</v>
       </c>
       <c r="S2" t="n">
-        <v>3.090571403503418</v>
+        <v>2.268695592880249</v>
       </c>
       <c r="T2" t="n">
-        <v>23.97982406616211</v>
+        <v>33.19571304321289</v>
       </c>
       <c r="U2" t="n">
-        <v>4.630361557006836</v>
+        <v>4.627714157104492</v>
       </c>
     </row>
     <row r="3">
@@ -609,64 +609,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.858371581589238</v>
+        <v>0.8248584064360241</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8041562713358713</v>
+        <v>0.8894042671483949</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8124107099338571</v>
+        <v>0.8811345195495769</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8644619458393367</v>
+        <v>0.9204958269069361</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9018139758935342</v>
+        <v>0.9148020857697601</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9594830545335035</v>
+        <v>0.8949177509004419</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9354450518594069</v>
+        <v>0.941583311316943</v>
       </c>
       <c r="I3" t="n">
-        <v>0.921054394199298</v>
+        <v>0.8589905252776195</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8981589949513316</v>
+        <v>0.9395392456402382</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9282262803930225</v>
+        <v>0.8898628612162162</v>
       </c>
       <c r="L3" t="n">
-        <v>0.937756170346899</v>
+        <v>0.834218293354101</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8363621790889695</v>
+        <v>0.884453716695153</v>
       </c>
       <c r="N3" t="n">
-        <v>0.7960508476410594</v>
+        <v>0.9338907930999994</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8954448467450784</v>
+        <v>0.8979443765158276</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9629093181519282</v>
+        <v>0.9579219137608763</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9040263347255374</v>
+        <v>0.9061693790166274</v>
       </c>
       <c r="R3" t="n">
-        <v>0.8479368002481864</v>
+        <v>0.9145949394493312</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8786639894757952</v>
+        <v>0.7906003874065219</v>
       </c>
       <c r="T3" t="n">
-        <v>0.9682535780103583</v>
+        <v>0.9717211716605308</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9375257527971842</v>
+        <v>0.9244736398969378</v>
       </c>
     </row>
   </sheetData>
